--- a/InputFile/InboundTestSuiteA_InputFiles/excel_asset.xlsx
+++ b/InputFile/InboundTestSuiteA_InputFiles/excel_asset.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">f1</t>
   </si>
   <si>
-    <t xml:space="preserve">test47</t>
+    <t xml:space="preserve">test48</t>
   </si>
   <si>
     <t xml:space="preserve">!@#$%^&amp;*()_&lt;&gt;?,./”;’:”|}+_-=</t>

--- a/InputFile/InboundTestSuiteA_InputFiles/excel_asset.xlsx
+++ b/InputFile/InboundTestSuiteA_InputFiles/excel_asset.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">f1</t>
   </si>
   <si>
-    <t xml:space="preserve">test48</t>
+    <t xml:space="preserve">test47</t>
   </si>
   <si>
     <t xml:space="preserve">!@#$%^&amp;*()_&lt;&gt;?,./”;’:”|}+_-=</t>
